--- a/Prelim_Data/Columbia_Plateau/Columbia_Plateau_50_90.xlsx
+++ b/Prelim_Data/Columbia_Plateau/Columbia_Plateau_50_90.xlsx
@@ -673,7 +673,7 @@
         <v>25.77579365079365</v>
       </c>
       <c r="O2" t="n">
-        <v>1.432221441315651</v>
+        <v>1.432221441315653</v>
       </c>
       <c r="P2" t="n">
         <v>0.84</v>
@@ -1157,7 +1157,7 @@
         <v>21.39484126984127</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3069872705133975</v>
+        <v>0.3069872705133974</v>
       </c>
       <c r="P6" t="n">
         <v>0.84</v>
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="AK17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2923,7 +2923,7 @@
         </is>
       </c>
       <c r="AK20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -2972,7 +2972,7 @@
         <v>8.819266323953824</v>
       </c>
       <c r="O21" t="n">
-        <v>0.06371983478406089</v>
+        <v>0.06371983478406092</v>
       </c>
       <c r="P21" t="n">
         <v>0.96</v>
@@ -3044,7 +3044,7 @@
         </is>
       </c>
       <c r="AK21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="AK23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -3940,7 +3940,7 @@
         <v>15.53287037037037</v>
       </c>
       <c r="O29" t="n">
-        <v>0.01005100646505232</v>
+        <v>0.01005100646505231</v>
       </c>
       <c r="P29" t="n">
         <v>0.8</v>
@@ -4424,7 +4424,7 @@
         <v>25.50968992248062</v>
       </c>
       <c r="O33" t="n">
-        <v>0.3094509165460448</v>
+        <v>0.3094509165460451</v>
       </c>
       <c r="P33" t="n">
         <v>0.86</v>
@@ -4545,7 +4545,7 @@
         <v>32.86458333333334</v>
       </c>
       <c r="O34" t="n">
-        <v>0.05117192000599941</v>
+        <v>0.05117192000599945</v>
       </c>
       <c r="P34" t="n">
         <v>0.96</v>
@@ -5513,7 +5513,7 @@
         <v>14.30442857142857</v>
       </c>
       <c r="O42" t="n">
-        <v>0.1661267140294487</v>
+        <v>0.1661267140294488</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
@@ -5585,7 +5585,7 @@
         </is>
       </c>
       <c r="AK42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -5752,16 +5752,16 @@
         <v>45.6</v>
       </c>
       <c r="N44" t="n">
-        <v>10.35565280552781</v>
+        <v>10.36419447219447</v>
       </c>
       <c r="O44" t="n">
-        <v>0.05043611472203894</v>
+        <v>0.05048749535702617</v>
       </c>
       <c r="P44" t="n">
         <v>0.8</v>
       </c>
       <c r="Q44" t="n">
-        <v>7.05</v>
+        <v>7.025</v>
       </c>
       <c r="R44" t="n">
         <v>176.7692307692308</v>
@@ -7086,7 +7086,7 @@
         <v>26.21938775510204</v>
       </c>
       <c r="O55" t="n">
-        <v>0.3067439527501405</v>
+        <v>0.3067439527501406</v>
       </c>
       <c r="P55" t="n">
         <v>0.98</v>
@@ -7328,7 +7328,7 @@
         <v>27.85972222222223</v>
       </c>
       <c r="O57" t="n">
-        <v>0.3564094171642609</v>
+        <v>0.3564094171642607</v>
       </c>
       <c r="P57" t="n">
         <v>0.96</v>
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="AK58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -8005,7 +8005,7 @@
         </is>
       </c>
       <c r="AK62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -8293,16 +8293,16 @@
         <v>36.72413793103448</v>
       </c>
       <c r="N65" t="n">
-        <v>11.57931034482759</v>
+        <v>12.5448275862069</v>
       </c>
       <c r="O65" t="n">
-        <v>0.0188611008308922</v>
+        <v>0.01993759407123781</v>
       </c>
       <c r="P65" t="n">
         <v>1</v>
       </c>
       <c r="Q65" t="n">
-        <v>3.413793103448276</v>
+        <v>3.379310344827586</v>
       </c>
       <c r="R65" t="n">
         <v>234.1724137931035</v>
@@ -8417,7 +8417,7 @@
         <v>10.52392857142857</v>
       </c>
       <c r="O66" t="n">
-        <v>0.06227864556659246</v>
+        <v>0.06227864556659247</v>
       </c>
       <c r="P66" t="n">
         <v>0.8</v>
@@ -9022,7 +9022,7 @@
         <v>35.37962962962963</v>
       </c>
       <c r="O71" t="n">
-        <v>0.01519217395941375</v>
+        <v>0.01519217395941376</v>
       </c>
       <c r="P71" t="n">
         <v>0.72</v>
@@ -9261,16 +9261,16 @@
         <v>72.59999999999999</v>
       </c>
       <c r="N73" t="n">
-        <v>40.314</v>
+        <v>40.66</v>
       </c>
       <c r="O73" t="n">
-        <v>0.01264327446857812</v>
+        <v>0.01269969739382551</v>
       </c>
       <c r="P73" t="n">
         <v>0.5</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="R73" t="n">
         <v>184.9583333333333</v>
@@ -9869,7 +9869,7 @@
         <v>8.999975704567541</v>
       </c>
       <c r="O78" t="n">
-        <v>0.006459603132374885</v>
+        <v>0.006459603132374887</v>
       </c>
       <c r="P78" t="n">
         <v>0.98</v>
@@ -9941,7 +9941,7 @@
         </is>
       </c>
       <c r="AK78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -10837,7 +10837,7 @@
         <v>22.18271604938271</v>
       </c>
       <c r="O86" t="n">
-        <v>0.05184943314415589</v>
+        <v>0.0518494331441559</v>
       </c>
       <c r="P86" t="n">
         <v>0.6666666666666666</v>
@@ -11151,7 +11151,7 @@
         </is>
       </c>
       <c r="AK88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -11514,7 +11514,7 @@
         </is>
       </c>
       <c r="AK91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -11923,16 +11923,16 @@
         <v>67.0952380952381</v>
       </c>
       <c r="N95" t="n">
-        <v>38.23015873015873</v>
+        <v>39.04761904761905</v>
       </c>
       <c r="O95" t="n">
-        <v>0.2443966642347989</v>
+        <v>0.2494472116874198</v>
       </c>
       <c r="P95" t="n">
         <v>0.5526315789473685</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.095238095238095</v>
+        <v>2.047619047619047</v>
       </c>
       <c r="R95" t="n">
         <v>216.0952380952381</v>
@@ -12119,7 +12119,7 @@
         </is>
       </c>
       <c r="AK96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -12482,7 +12482,7 @@
         </is>
       </c>
       <c r="AK99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -12894,7 +12894,7 @@
         <v>12.88035714285714</v>
       </c>
       <c r="O103" t="n">
-        <v>0.08913716162184808</v>
+        <v>0.08913716162184795</v>
       </c>
       <c r="P103" t="n">
         <v>0.6666666666666666</v>
@@ -13257,7 +13257,7 @@
         <v>11.97906746031746</v>
       </c>
       <c r="O106" t="n">
-        <v>0.006326998972559075</v>
+        <v>0.006326998972559076</v>
       </c>
       <c r="P106" t="n">
         <v>0.48</v>
@@ -13862,7 +13862,7 @@
         <v>18.55965250965251</v>
       </c>
       <c r="O111" t="n">
-        <v>1.123048147155036</v>
+        <v>1.123048147155037</v>
       </c>
       <c r="P111" t="n">
         <v>0.74</v>
@@ -14101,7 +14101,7 @@
         <v>40.725</v>
       </c>
       <c r="N113" t="n">
-        <v>8.69810515873016</v>
+        <v>8.698105158730158</v>
       </c>
       <c r="O113" t="n">
         <v>0.003952703277577329</v>
@@ -14902,7 +14902,7 @@
         </is>
       </c>
       <c r="AK119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -15556,7 +15556,7 @@
         <v>24.77469135802469</v>
       </c>
       <c r="O125" t="n">
-        <v>0.2600513475516694</v>
+        <v>0.2600513475516693</v>
       </c>
       <c r="P125" t="n">
         <v>0.54</v>
@@ -15749,7 +15749,7 @@
         </is>
       </c>
       <c r="AK126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -15919,7 +15919,7 @@
         <v>23.48197278911564</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05048928385484489</v>
+        <v>0.05048928385484487</v>
       </c>
       <c r="P128" t="n">
         <v>0.98</v>
@@ -15991,7 +15991,7 @@
         </is>
       </c>
       <c r="AK128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -16475,7 +16475,7 @@
         </is>
       </c>
       <c r="AK132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="AK133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -16645,7 +16645,7 @@
         <v>8.192180515961004</v>
       </c>
       <c r="O134" t="n">
-        <v>0.00796697048140271</v>
+        <v>0.007966970481402706</v>
       </c>
       <c r="P134" t="n">
         <v>1</v>
@@ -16838,7 +16838,7 @@
         </is>
       </c>
       <c r="AK135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -16959,7 +16959,7 @@
         </is>
       </c>
       <c r="AK136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -27631,25 +27631,25 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9731898160011894</v>
+        <v>0.9861976485245498</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03360790819907108</v>
+        <v>0.01729954507840292</v>
       </c>
       <c r="O4" t="n">
-        <v>0.004081632653061225</v>
+        <v>0.002551020408163265</v>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>14165.66666666667</v>
+        <v>13365.66666666667</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>12.25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -28541,25 +28541,25 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.05199781561871752</v>
+        <v>0.6490437529262907</v>
       </c>
       <c r="N18" t="n">
-        <v>-1.943151835075461</v>
+        <v>-0.4550910273091032</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.163265306122449</v>
+        <v>-0.08187134502923976</v>
       </c>
       <c r="P18" t="n">
-        <v>-200</v>
+        <v>-14</v>
       </c>
       <c r="Q18" t="n">
-        <v>10488</v>
+        <v>816</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>-0.140625</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>8.865625</v>
       </c>
     </row>
     <row r="19">
@@ -28794,32 +28794,32 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0001648968855068045</v>
+        <v>0.989125708265659</v>
       </c>
       <c r="N22" t="n">
-        <v>3.767490391310457</v>
+        <v>-0.01362932551272764</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3640816326530612</v>
+        <v>-0.003174603174603175</v>
       </c>
       <c r="P22" t="n">
-        <v>446</v>
+        <v>-2</v>
       </c>
       <c r="Q22" t="n">
-        <v>13951.33333333333</v>
+        <v>5383.333333333333</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1542553191489362</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1.57680528691167</v>
+        <v>6.928571428571429</v>
       </c>
     </row>
     <row r="23">
@@ -29061,25 +29061,25 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.9521197052627557</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.06004511205096213</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.006530612244897959</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>13590.66666666667</v>
+        <v>12865.33333333333</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.916666666666668</v>
+        <v>10.33333333333333</v>
       </c>
     </row>
     <row r="27">
@@ -29256,25 +29256,25 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.02493177262454149</v>
+        <v>0.02068547487688188</v>
       </c>
       <c r="N29" t="n">
-        <v>2.242458220541292</v>
+        <v>2.313676482007082</v>
       </c>
       <c r="O29" t="n">
-        <v>0.2838709677419355</v>
+        <v>0.2988505747126437</v>
       </c>
       <c r="P29" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q29" t="n">
-        <v>3412.666666666667</v>
+        <v>3108.666666666667</v>
       </c>
       <c r="R29" t="n">
-        <v>0.4404761904761904</v>
+        <v>0.5</v>
       </c>
       <c r="S29" t="n">
-        <v>-2.107142857142856</v>
+        <v>-2.055555555555555</v>
       </c>
     </row>
     <row r="30">
@@ -29834,32 +29834,32 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
-      <c r="M38" t="n">
-        <v>0.01016601018824903</v>
-      </c>
       <c r="N38" t="n">
-        <v>2.570130872413599</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0.2253061224489796</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="P38" t="n">
-        <v>276</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="n">
-        <v>11448.66666666667</v>
+        <v>1823.666666666667</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.333333333333334</v>
       </c>
     </row>
     <row r="39">
@@ -29971,25 +29971,25 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.8670747984901541</v>
+        <v>0.9196171294399185</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.1673752494993656</v>
+        <v>-0.1009160155527349</v>
       </c>
       <c r="O40" t="n">
-        <v>-0.01714285714285714</v>
+        <v>-0.01110083256244218</v>
       </c>
       <c r="P40" t="n">
-        <v>-21</v>
+        <v>-12</v>
       </c>
       <c r="Q40" t="n">
-        <v>14278.33333333333</v>
+        <v>11881.33333333333</v>
       </c>
       <c r="R40" t="n">
-        <v>-0.015625</v>
+        <v>-0.006000000000000014</v>
       </c>
       <c r="S40" t="n">
-        <v>11.0078125</v>
+        <v>11.638</v>
       </c>
     </row>
     <row r="41">
@@ -30166,25 +30166,25 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.9264259462419342</v>
+        <v>0.5576025867964323</v>
       </c>
       <c r="N43" t="n">
-        <v>0.09234247009337436</v>
+        <v>-0.586406188193654</v>
       </c>
       <c r="O43" t="n">
-        <v>0.009795918367346938</v>
+        <v>-0.06312292358803986</v>
       </c>
       <c r="P43" t="n">
-        <v>12</v>
+        <v>-57</v>
       </c>
       <c r="Q43" t="n">
-        <v>14190</v>
+        <v>9119.666666666666</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>-0.03333333333333333</v>
       </c>
       <c r="S43" t="n">
-        <v>6.9</v>
+        <v>8.949999999999999</v>
       </c>
     </row>
     <row r="44">
@@ -30202,16 +30202,16 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0004718428966963284</v>
+        <v>0.0005164876856496026</v>
       </c>
       <c r="E44" t="n">
-        <v>3.496251983131951</v>
+        <v>3.472056467677751</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3913630229419703</v>
+        <v>0.388663967611336</v>
       </c>
       <c r="G44" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H44" t="n">
         <v>6832.666666666667</v>
@@ -30231,16 +30231,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0.7491753979383105</v>
+        <v>0.7619667354563611</v>
       </c>
       <c r="N44" t="n">
-        <v>0.3197268579653075</v>
+        <v>0.3028991285987124</v>
       </c>
       <c r="O44" t="n">
-        <v>0.03183673469387755</v>
+        <v>0.03020408163265306</v>
       </c>
       <c r="P44" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q44" t="n">
         <v>14125.66666666667</v>
@@ -30296,25 +30296,25 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.131997425624522</v>
+        <v>0.1624286847379568</v>
       </c>
       <c r="N45" t="n">
-        <v>1.506271755660329</v>
+        <v>1.396949742642015</v>
       </c>
       <c r="O45" t="n">
-        <v>0.1477551020408163</v>
+        <v>0.1386054421768707</v>
       </c>
       <c r="P45" t="n">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="Q45" t="n">
-        <v>14280.33333333333</v>
+        <v>13448.33333333333</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1510416666666667</v>
+        <v>0.140625</v>
       </c>
       <c r="S45" t="n">
-        <v>5.799479166666666</v>
+        <v>6.625</v>
       </c>
     </row>
     <row r="46">
@@ -30354,32 +30354,32 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>decreasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.001568325201923404</v>
+        <v>0.9432068918130148</v>
       </c>
       <c r="N46" t="n">
-        <v>-3.161734435132316</v>
+        <v>0.07123981788618183</v>
       </c>
       <c r="O46" t="n">
-        <v>-0.3058510638297872</v>
+        <v>0.01008403361344538</v>
       </c>
       <c r="P46" t="n">
-        <v>-345</v>
+        <v>6</v>
       </c>
       <c r="Q46" t="n">
-        <v>11837.66666666667</v>
+        <v>4926</v>
       </c>
       <c r="R46" t="n">
-        <v>-0.5362762237762237</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>30.10249125874126</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="47">
@@ -31199,32 +31199,32 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>5.473486290874519e-07</v>
+        <v>0.2514956261995338</v>
       </c>
       <c r="N59" t="n">
-        <v>5.008925115812882</v>
+        <v>1.146724198217075</v>
       </c>
       <c r="O59" t="n">
-        <v>0.4775510204081633</v>
+        <v>0.1420454545454546</v>
       </c>
       <c r="P59" t="n">
-        <v>585</v>
+        <v>75</v>
       </c>
       <c r="Q59" t="n">
-        <v>13593.66666666667</v>
+        <v>4164.333333333333</v>
       </c>
       <c r="R59" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.3564814814814814</v>
       </c>
       <c r="S59" t="n">
-        <v>-1.666666666666668</v>
+        <v>10.96296296296297</v>
       </c>
     </row>
     <row r="60">
@@ -31567,25 +31567,25 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.259684382732972</v>
+        <v>0.2441369378490839</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.127137423701825</v>
+        <v>-1.164708671158552</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.1502463054187192</v>
+        <v>-0.1551724137931035</v>
       </c>
       <c r="G65" t="n">
-        <v>-61</v>
+        <v>-63</v>
       </c>
       <c r="H65" t="n">
         <v>2833.666666666667</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.1906318082788671</v>
+        <v>-0.2012138188608777</v>
       </c>
       <c r="J65" t="n">
-        <v>12.33551198257081</v>
+        <v>12.48366013071895</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -31596,25 +31596,25 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0.1581519120696808</v>
+        <v>0.1478846168671544</v>
       </c>
       <c r="N65" t="n">
-        <v>-1.41131446199573</v>
+        <v>-1.447043942046255</v>
       </c>
       <c r="O65" t="n">
-        <v>-0.1839080459770115</v>
+        <v>-0.1885057471264368</v>
       </c>
       <c r="P65" t="n">
-        <v>-80</v>
+        <v>-82</v>
       </c>
       <c r="Q65" t="n">
         <v>3133.333333333333</v>
       </c>
       <c r="R65" t="n">
-        <v>-0.2274509803921569</v>
+        <v>-0.2333333333333334</v>
       </c>
       <c r="S65" t="n">
-        <v>12.96470588235294</v>
+        <v>13.05</v>
       </c>
     </row>
     <row r="66">
@@ -31661,25 +31661,25 @@
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>0.08941743234566313</v>
+        <v>0.9641143404717236</v>
       </c>
       <c r="N66" t="n">
-        <v>1.698478790832583</v>
+        <v>0.04499117837596322</v>
       </c>
       <c r="O66" t="n">
-        <v>0.1657142857142857</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="P66" t="n">
-        <v>203</v>
+        <v>5</v>
       </c>
       <c r="Q66" t="n">
-        <v>14144.33333333333</v>
+        <v>7904.333333333333</v>
       </c>
       <c r="R66" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>4.366666666666666</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="67">
@@ -31719,32 +31719,32 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>2.718206650875743e-07</v>
+        <v>0.4416847963526576</v>
       </c>
       <c r="N67" t="n">
-        <v>5.142005840510379</v>
+        <v>0.7693512906668215</v>
       </c>
       <c r="O67" t="n">
-        <v>0.48</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="P67" t="n">
-        <v>588</v>
+        <v>42</v>
       </c>
       <c r="Q67" t="n">
-        <v>13032</v>
+        <v>2840</v>
       </c>
       <c r="R67" t="n">
-        <v>0.2068965517241379</v>
+        <v>0.1083333333333333</v>
       </c>
       <c r="S67" t="n">
-        <v>-1.485632183908046</v>
+        <v>6.283333333333334</v>
       </c>
     </row>
     <row r="68">
@@ -31914,32 +31914,32 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>0.0003969434620054724</v>
+        <v>0.4592944579074156</v>
       </c>
       <c r="N70" t="n">
-        <v>3.542107638708197</v>
+        <v>0.7400091243184136</v>
       </c>
       <c r="O70" t="n">
-        <v>0.3102040816326531</v>
+        <v>0.1146245059288538</v>
       </c>
       <c r="P70" t="n">
-        <v>380</v>
+        <v>29</v>
       </c>
       <c r="Q70" t="n">
-        <v>11448.66666666667</v>
+        <v>1431.666666666667</v>
       </c>
       <c r="R70" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S70" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="71">
@@ -32044,32 +32044,32 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>0.0001456199865952357</v>
+        <v>0.5767974704841166</v>
       </c>
       <c r="N72" t="n">
-        <v>3.798422431378665</v>
+        <v>0.5580687036253706</v>
       </c>
       <c r="O72" t="n">
-        <v>0.3183673469387755</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="P72" t="n">
-        <v>390</v>
+        <v>22</v>
       </c>
       <c r="Q72" t="n">
-        <v>10488</v>
+        <v>1416</v>
       </c>
       <c r="R72" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S72" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="73">
@@ -32102,10 +32102,10 @@
         <v>1623.333333333333</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.5729166666666667</v>
+        <v>-0.5931372549019608</v>
       </c>
       <c r="J73" t="n">
-        <v>32.58854166666667</v>
+        <v>32.82107843137255</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -33532,10 +33532,10 @@
         <v>1093</v>
       </c>
       <c r="I95" t="n">
-        <v>-0.3035714285714286</v>
+        <v>-0.4166666666666661</v>
       </c>
       <c r="J95" t="n">
-        <v>29.53571428571428</v>
+        <v>30.66666666666666</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -34066,25 +34066,25 @@
         <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>0.3473322194854942</v>
+        <v>0.8753088059117513</v>
       </c>
       <c r="N103" t="n">
-        <v>0.9397764920142169</v>
+        <v>-0.1569188472540014</v>
       </c>
       <c r="O103" t="n">
-        <v>0.09988385598141696</v>
+        <v>-0.02016806722689076</v>
       </c>
       <c r="P103" t="n">
-        <v>86</v>
+        <v>-12</v>
       </c>
       <c r="Q103" t="n">
-        <v>8180.666666666667</v>
+        <v>4914</v>
       </c>
       <c r="R103" t="n">
         <v>0</v>
       </c>
       <c r="S103" t="n">
-        <v>5.25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104">
@@ -34254,32 +34254,32 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0009355427665982408</v>
+        <v>0.8947362490929238</v>
       </c>
       <c r="N106" t="n">
-        <v>3.309226030221297</v>
+        <v>0.1323136020412692</v>
       </c>
       <c r="O106" t="n">
-        <v>0.2995918367346939</v>
+        <v>0.02153846153846154</v>
       </c>
       <c r="P106" t="n">
-        <v>367</v>
+        <v>7</v>
       </c>
       <c r="Q106" t="n">
-        <v>12232.33333333333</v>
+        <v>2056.333333333333</v>
       </c>
       <c r="R106" t="n">
-        <v>0.05681818181818182</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="S106" t="n">
-        <v>-1.392045454545455</v>
+        <v>7.415909090909091</v>
       </c>
     </row>
     <row r="107">
@@ -34716,25 +34716,25 @@
         <v>0</v>
       </c>
       <c r="M113" t="n">
-        <v>0.1066230452827999</v>
+        <v>0.112606871578502</v>
       </c>
       <c r="N113" t="n">
-        <v>1.613559326057625</v>
+        <v>1.586584096977019</v>
       </c>
       <c r="O113" t="n">
-        <v>0.1575510204081633</v>
+        <v>0.1646464646464647</v>
       </c>
       <c r="P113" t="n">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="Q113" t="n">
-        <v>14159</v>
+        <v>10425.66666666667</v>
       </c>
       <c r="R113" t="n">
-        <v>0.08139534883720931</v>
+        <v>0.0959084084084084</v>
       </c>
       <c r="S113" t="n">
-        <v>2.672480620155038</v>
+        <v>2.890015015015015</v>
       </c>
     </row>
     <row r="114">
@@ -34846,25 +34846,25 @@
         <v>0</v>
       </c>
       <c r="M115" t="n">
-        <v>0.07682500621966115</v>
+        <v>0.3951059323785659</v>
       </c>
       <c r="N115" t="n">
-        <v>1.769412829202761</v>
+        <v>0.8503942491228869</v>
       </c>
       <c r="O115" t="n">
-        <v>0.1657142857142857</v>
+        <v>0.1096774193548387</v>
       </c>
       <c r="P115" t="n">
-        <v>203</v>
+        <v>51</v>
       </c>
       <c r="Q115" t="n">
-        <v>13033</v>
+        <v>3457</v>
       </c>
       <c r="R115" t="n">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="S115" t="n">
-        <v>2.375</v>
+        <v>3.388888888888889</v>
       </c>
     </row>
     <row r="116">
@@ -35034,32 +35034,32 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>decreasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M118" t="n">
-        <v>0.002870809604841096</v>
+        <v>0.7727046455311284</v>
       </c>
       <c r="N118" t="n">
-        <v>-2.981242930079814</v>
+        <v>0.2888389219183989</v>
       </c>
       <c r="O118" t="n">
-        <v>-0.2359183673469388</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="P118" t="n">
-        <v>-289</v>
+        <v>8</v>
       </c>
       <c r="Q118" t="n">
-        <v>9332.333333333334</v>
+        <v>587.3333333333334</v>
       </c>
       <c r="R118" t="n">
-        <v>0</v>
+        <v>0.1753246753246753</v>
       </c>
       <c r="S118" t="n">
-        <v>0</v>
+        <v>23.0974025974026</v>
       </c>
     </row>
     <row r="119">
@@ -35164,32 +35164,32 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M120" t="n">
-        <v>0.0004781941715694682</v>
+        <v>0.2681558505823991</v>
       </c>
       <c r="N120" t="n">
-        <v>3.492682799633611</v>
+        <v>-1.107319420872094</v>
       </c>
       <c r="O120" t="n">
-        <v>0.3240816326530612</v>
+        <v>-0.1448275862068966</v>
       </c>
       <c r="P120" t="n">
-        <v>397</v>
+        <v>-63</v>
       </c>
       <c r="Q120" t="n">
-        <v>12855</v>
+        <v>3135</v>
       </c>
       <c r="R120" t="n">
-        <v>0.1203703703703704</v>
+        <v>-0.2156862745098039</v>
       </c>
       <c r="S120" t="n">
-        <v>-0.2824074074074074</v>
+        <v>14.27745098039216</v>
       </c>
     </row>
     <row r="121">
@@ -35301,25 +35301,25 @@
         <v>0</v>
       </c>
       <c r="M122" t="n">
-        <v>0.6677088813730985</v>
+        <v>0.54336854876055</v>
       </c>
       <c r="N122" t="n">
-        <v>-0.4292945515588458</v>
+        <v>-0.6077270056935287</v>
       </c>
       <c r="O122" t="n">
-        <v>-0.04244897959183674</v>
+        <v>-0.06533776301218161</v>
       </c>
       <c r="P122" t="n">
-        <v>-52</v>
+        <v>-59</v>
       </c>
       <c r="Q122" t="n">
-        <v>14113.33333333333</v>
+        <v>9108.333333333334</v>
       </c>
       <c r="R122" t="n">
-        <v>0</v>
+        <v>-0.14</v>
       </c>
       <c r="S122" t="n">
-        <v>10</v>
+        <v>17.94</v>
       </c>
     </row>
     <row r="123">
@@ -35496,25 +35496,25 @@
         <v>0</v>
       </c>
       <c r="M125" t="n">
-        <v>0.2202290599487919</v>
+        <v>0.910341484373421</v>
       </c>
       <c r="N125" t="n">
-        <v>1.225919260637905</v>
+        <v>-0.1126078208221815</v>
       </c>
       <c r="O125" t="n">
-        <v>0.1142857142857143</v>
+        <v>-0.01724137931034483</v>
       </c>
       <c r="P125" t="n">
-        <v>140</v>
+        <v>-7</v>
       </c>
       <c r="Q125" t="n">
-        <v>12856</v>
+        <v>2839</v>
       </c>
       <c r="R125" t="n">
-        <v>0</v>
+        <v>-0.03860028860028859</v>
       </c>
       <c r="S125" t="n">
-        <v>3.75</v>
+        <v>20.04040404040404</v>
       </c>
     </row>
     <row r="126">
@@ -35561,25 +35561,25 @@
         <v>0</v>
       </c>
       <c r="M126" t="n">
-        <v>0.9599277456126925</v>
+        <v>0.4154117810055911</v>
       </c>
       <c r="N126" t="n">
-        <v>-0.05024425508105015</v>
+        <v>-0.8144070852755617</v>
       </c>
       <c r="O126" t="n">
-        <v>-0.005714285714285714</v>
+        <v>-0.08405797101449275</v>
       </c>
       <c r="P126" t="n">
-        <v>-7</v>
+        <v>-87</v>
       </c>
       <c r="Q126" t="n">
-        <v>14260.33333333333</v>
+        <v>11151</v>
       </c>
       <c r="R126" t="n">
-        <v>0</v>
+        <v>-0.1083333333333333</v>
       </c>
       <c r="S126" t="n">
-        <v>11.33333333333333</v>
+        <v>15.10416666666667</v>
       </c>
     </row>
     <row r="127">
@@ -35626,25 +35626,25 @@
         <v>0</v>
       </c>
       <c r="M127" t="n">
-        <v>0.9176567275392424</v>
+        <v>0.3258889674157843</v>
       </c>
       <c r="N127" t="n">
-        <v>-0.1033858682576399</v>
+        <v>0.9824281427292695</v>
       </c>
       <c r="O127" t="n">
-        <v>-0.0128022759601707</v>
+        <v>0.1433333333333333</v>
       </c>
       <c r="P127" t="n">
-        <v>-9</v>
+        <v>43</v>
       </c>
       <c r="Q127" t="n">
-        <v>5987.666666666667</v>
+        <v>1827.666666666667</v>
       </c>
       <c r="R127" t="n">
-        <v>0</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="S127" t="n">
-        <v>7</v>
+        <v>20.21428571428572</v>
       </c>
     </row>
     <row r="128">
@@ -36341,25 +36341,25 @@
         <v>0</v>
       </c>
       <c r="M138" t="n">
-        <v>0.09925563911198543</v>
+        <v>0.3987150497726255</v>
       </c>
       <c r="N138" t="n">
-        <v>1.64847303751957</v>
+        <v>0.8439183206889768</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1616326530612245</v>
+        <v>0.08603145235892692</v>
       </c>
       <c r="P138" t="n">
-        <v>198</v>
+        <v>93</v>
       </c>
       <c r="Q138" t="n">
-        <v>14281.33333333333</v>
+        <v>11884.33333333333</v>
       </c>
       <c r="R138" t="n">
-        <v>0.03758169934640525</v>
+        <v>0.01576923076923078</v>
       </c>
       <c r="S138" t="n">
-        <v>3.762581699346405</v>
+        <v>4.637307692307692</v>
       </c>
     </row>
     <row r="139">
@@ -36594,32 +36594,32 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M142" t="n">
-        <v>0.03270287295807783</v>
+        <v>0.7834235533977572</v>
       </c>
       <c r="N142" t="n">
-        <v>2.135712278726833</v>
+        <v>-0.2748603200228616</v>
       </c>
       <c r="O142" t="n">
-        <v>0.2048979591836735</v>
+        <v>-0.03303303303303303</v>
       </c>
       <c r="P142" t="n">
-        <v>251</v>
+        <v>-22</v>
       </c>
       <c r="Q142" t="n">
-        <v>13702.33333333333</v>
+        <v>5837.333333333333</v>
       </c>
       <c r="R142" t="n">
-        <v>0.1097560975609756</v>
+        <v>-0.03819444444444445</v>
       </c>
       <c r="S142" t="n">
-        <v>2.460975609756098</v>
+        <v>8.887499999999999</v>
       </c>
     </row>
     <row r="143">
@@ -37042,19 +37042,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.952219094152094</v>
+        <v>0.9367122131047585</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.05992032226034907</v>
+        <v>-0.07940283582325927</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.006530612244897959</v>
+        <v>-0.008503401360544218</v>
       </c>
       <c r="P4" t="n">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="Q4" t="n">
-        <v>13647.33333333333</v>
+        <v>12847.33333333333</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -37952,25 +37952,25 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.05533133710232185</v>
+        <v>0.721946073974117</v>
       </c>
       <c r="N18" t="n">
-        <v>-1.916265285958223</v>
+        <v>-0.3558591171665809</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.1608163265306123</v>
+        <v>-0.06432748538011696</v>
       </c>
       <c r="P18" t="n">
-        <v>-197</v>
+        <v>-11</v>
       </c>
       <c r="Q18" t="n">
-        <v>10461.66666666667</v>
+        <v>789.6666666666666</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -38205,32 +38205,32 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0001072196819136284</v>
+        <v>0.9124127597319072</v>
       </c>
       <c r="N22" t="n">
-        <v>3.873644733021824</v>
+        <v>0.1099957320192416</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3730612244897959</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="P22" t="n">
-        <v>457</v>
+        <v>9</v>
       </c>
       <c r="Q22" t="n">
-        <v>13857.66666666667</v>
+        <v>5289.666666666667</v>
       </c>
       <c r="R22" t="n">
-        <v>0.0975609756097561</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.6097560975609757</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="23">
@@ -38472,19 +38472,19 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5095377881653802</v>
+        <v>0.5438898774467631</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.6595575733809159</v>
+        <v>-0.6069412864988872</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.06285714285714286</v>
+        <v>-0.0586734693877551</v>
       </c>
       <c r="P26" t="n">
-        <v>-77</v>
+        <v>-69</v>
       </c>
       <c r="Q26" t="n">
-        <v>13277.66666666667</v>
+        <v>12552.33333333333</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -38667,19 +38667,19 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.7160862987595906</v>
+        <v>0.6760665590790988</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.3636943019775562</v>
+        <v>-0.4178366412198368</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.04731182795698925</v>
+        <v>-0.05517241379310345</v>
       </c>
       <c r="P29" t="n">
-        <v>-22</v>
+        <v>-24</v>
       </c>
       <c r="Q29" t="n">
-        <v>3334</v>
+        <v>3030</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -39245,32 +39245,32 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.00508724738456201</v>
+        <v>0.567965060874607</v>
       </c>
       <c r="N38" t="n">
-        <v>2.801456660282589</v>
+        <v>0.5710510169959229</v>
       </c>
       <c r="O38" t="n">
-        <v>0.2448979591836735</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="P38" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="Q38" t="n">
-        <v>11391.33333333333</v>
+        <v>1766.333333333333</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -39382,25 +39382,25 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4990117454478269</v>
+        <v>0.5094322249010004</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.6760455186809642</v>
+        <v>-0.6597220328454717</v>
       </c>
       <c r="O40" t="n">
-        <v>-0.0653061224489796</v>
+        <v>-0.06567992599444958</v>
       </c>
       <c r="P40" t="n">
-        <v>-80</v>
+        <v>-71</v>
       </c>
       <c r="Q40" t="n">
-        <v>13655.33333333333</v>
+        <v>11258.33333333333</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -39577,25 +39577,25 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.3948790265534237</v>
+        <v>0.7487382613128855</v>
       </c>
       <c r="N43" t="n">
-        <v>0.8508025830348935</v>
+        <v>0.3203035117238672</v>
       </c>
       <c r="O43" t="n">
-        <v>0.08081632653061224</v>
+        <v>0.03322259136212625</v>
       </c>
       <c r="P43" t="n">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="Q43" t="n">
-        <v>13267.66666666667</v>
+        <v>8197.333333333334</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -39628,10 +39628,10 @@
         <v>6749.333333333333</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.3448275862068966</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="J44" t="n">
-        <v>11.55172413793104</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -39657,10 +39657,10 @@
         <v>14042.33333333333</v>
       </c>
       <c r="R44" t="n">
-        <v>-0.2727272727272727</v>
+        <v>-0.2692307692307692</v>
       </c>
       <c r="S44" t="n">
-        <v>10.68181818181818</v>
+        <v>10.59615384615385</v>
       </c>
     </row>
     <row r="45">
@@ -39707,19 +39707,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.1630934888565558</v>
+        <v>0.1099969748728487</v>
       </c>
       <c r="N45" t="n">
-        <v>-1.394742549687652</v>
+        <v>-1.598206737151498</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.1338775510204082</v>
+        <v>-0.1547619047619048</v>
       </c>
       <c r="P45" t="n">
-        <v>-164</v>
+        <v>-182</v>
       </c>
       <c r="Q45" t="n">
-        <v>13658</v>
+        <v>12826</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -39765,32 +39765,32 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>decreasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.3477560684617595</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.9389506772171409</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-0.09915966386554621</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-59</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3815.666666666667</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
         <v>1</v>
-      </c>
-      <c r="M46" t="n">
-        <v>7.85073097875344e-05</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.948911675927234</v>
-      </c>
-      <c r="O46" t="n">
-        <v>-0.3634751773049645</v>
-      </c>
-      <c r="P46" t="n">
-        <v>-410</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>10727.33333333333</v>
-      </c>
-      <c r="R46" t="n">
-        <v>-0.025</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1.5875</v>
       </c>
     </row>
     <row r="47">
@@ -40610,32 +40610,32 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>2.743509163183333e-06</v>
+        <v>0.6372999986566994</v>
       </c>
       <c r="N59" t="n">
-        <v>4.689143525891268</v>
+        <v>0.4714771987049622</v>
       </c>
       <c r="O59" t="n">
-        <v>0.4408163265306123</v>
+        <v>0.05681818181818182</v>
       </c>
       <c r="P59" t="n">
-        <v>540</v>
+        <v>30</v>
       </c>
       <c r="Q59" t="n">
-        <v>13212.66666666667</v>
+        <v>3783.333333333333</v>
       </c>
       <c r="R59" t="n">
-        <v>0.04651162790697674</v>
+        <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>-0.1395348837209303</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -40978,19 +40978,19 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.09780943348482873</v>
+        <v>0.07954730198972015</v>
       </c>
       <c r="E65" t="n">
-        <v>1.65556751413601</v>
+        <v>1.753318789833714</v>
       </c>
       <c r="F65" t="n">
-        <v>0.20935960591133</v>
+        <v>0.2216748768472906</v>
       </c>
       <c r="G65" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H65" t="n">
-        <v>2574.333333333333</v>
+        <v>2576.666666666667</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -41007,19 +41007,19 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0.2253336164836428</v>
+        <v>0.1918233548641619</v>
       </c>
       <c r="N65" t="n">
-        <v>1.212467132900784</v>
+        <v>1.305204110593214</v>
       </c>
       <c r="O65" t="n">
-        <v>0.1517241379310345</v>
+        <v>0.1632183908045977</v>
       </c>
       <c r="P65" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="Q65" t="n">
-        <v>2874</v>
+        <v>2876.333333333333</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -41065,32 +41065,32 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>0.01734525738774129</v>
+        <v>0.3444639880539495</v>
       </c>
       <c r="N66" t="n">
-        <v>2.379306278173754</v>
+        <v>0.9453818046781428</v>
       </c>
       <c r="O66" t="n">
-        <v>0.2302040816326531</v>
+        <v>0.1024390243902439</v>
       </c>
       <c r="P66" t="n">
-        <v>282</v>
+        <v>84</v>
       </c>
       <c r="Q66" t="n">
-        <v>13948</v>
+        <v>7708</v>
       </c>
       <c r="R66" t="n">
-        <v>0.05128205128205128</v>
+        <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>1.743589743589744</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -41130,32 +41130,32 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>2.463488954607129e-06</v>
+        <v>0.8788010010727179</v>
       </c>
       <c r="N67" t="n">
-        <v>4.711128451363546</v>
+        <v>-0.1524893355507309</v>
       </c>
       <c r="O67" t="n">
-        <v>0.4383673469387755</v>
+        <v>-0.02216748768472906</v>
       </c>
       <c r="P67" t="n">
-        <v>537</v>
+        <v>-9</v>
       </c>
       <c r="Q67" t="n">
-        <v>12944.33333333333</v>
+        <v>2752.333333333333</v>
       </c>
       <c r="R67" t="n">
-        <v>0.09523809523809523</v>
+        <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>-0.333333333333333</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -41325,32 +41325,32 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>0.007799163021525057</v>
+        <v>0.07979818820800411</v>
       </c>
       <c r="N70" t="n">
-        <v>2.66064287503408</v>
+        <v>-1.751858231685006</v>
       </c>
       <c r="O70" t="n">
-        <v>0.2326530612244898</v>
+        <v>-0.2608695652173913</v>
       </c>
       <c r="P70" t="n">
-        <v>285</v>
+        <v>-66</v>
       </c>
       <c r="Q70" t="n">
-        <v>11393.66666666667</v>
+        <v>1376.666666666667</v>
       </c>
       <c r="R70" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="S70" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="71">
@@ -41455,32 +41455,32 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>0.001203056696728266</v>
+        <v>0.3455232426259909</v>
       </c>
       <c r="N72" t="n">
-        <v>3.238154428269403</v>
+        <v>-0.9433082785996189</v>
       </c>
       <c r="O72" t="n">
-        <v>0.2710204081632653</v>
+        <v>-0.1422924901185771</v>
       </c>
       <c r="P72" t="n">
-        <v>332</v>
+        <v>-36</v>
       </c>
       <c r="Q72" t="n">
-        <v>10448.66666666667</v>
+        <v>1376.666666666667</v>
       </c>
       <c r="R72" t="n">
-        <v>0</v>
+        <v>-0.05882352941176471</v>
       </c>
       <c r="S72" t="n">
-        <v>0</v>
+        <v>2.647058823529412</v>
       </c>
     </row>
     <row r="73">
@@ -41498,25 +41498,25 @@
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>0.01967948173621581</v>
+        <v>0.02267985566984976</v>
       </c>
       <c r="E73" t="n">
-        <v>-2.332403355869334</v>
+        <v>-2.278784887918315</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.3188405797101449</v>
+        <v>-0.3115942028985507</v>
       </c>
       <c r="G73" t="n">
-        <v>-88</v>
+        <v>-86</v>
       </c>
       <c r="H73" t="n">
         <v>1391.333333333333</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.06066176470588235</v>
+        <v>-0.05409356725146199</v>
       </c>
       <c r="J73" t="n">
-        <v>2.197610294117647</v>
+        <v>2.122076023391813</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -41527,25 +41527,25 @@
         <v>1</v>
       </c>
       <c r="M73" t="n">
-        <v>7.154188460356536e-05</v>
+        <v>7.722878086746654e-05</v>
       </c>
       <c r="N73" t="n">
-        <v>-3.971098851745994</v>
+        <v>-3.95284092599084</v>
       </c>
       <c r="O73" t="n">
-        <v>-0.3559183673469388</v>
+        <v>-0.3542857142857143</v>
       </c>
       <c r="P73" t="n">
-        <v>-436</v>
+        <v>-434</v>
       </c>
       <c r="Q73" t="n">
         <v>11999.33333333333</v>
       </c>
       <c r="R73" t="n">
-        <v>-0.02631578947368421</v>
+        <v>-0.02564102564102564</v>
       </c>
       <c r="S73" t="n">
-        <v>0.6447368421052632</v>
+        <v>0.6282051282051282</v>
       </c>
     </row>
     <row r="74">
@@ -42928,19 +42928,19 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1418924101686807</v>
+        <v>0.2170540149270519</v>
       </c>
       <c r="E95" t="n">
-        <v>-1.468780222126201</v>
+        <v>-1.234399661981982</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.219047619047619</v>
+        <v>-0.1857142857142857</v>
       </c>
       <c r="G95" t="n">
-        <v>-46</v>
+        <v>-39</v>
       </c>
       <c r="H95" t="n">
-        <v>938.6666666666666</v>
+        <v>947.6666666666666</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -42957,19 +42957,19 @@
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>0.6884777997618214</v>
+        <v>0.756441108307621</v>
       </c>
       <c r="N95" t="n">
-        <v>-0.4009216634160012</v>
+        <v>-0.3101576047729196</v>
       </c>
       <c r="O95" t="n">
-        <v>-0.04318488529014845</v>
+        <v>-0.03373819163292847</v>
       </c>
       <c r="P95" t="n">
-        <v>-32</v>
+        <v>-25</v>
       </c>
       <c r="Q95" t="n">
-        <v>5978.666666666667</v>
+        <v>5987.666666666667</v>
       </c>
       <c r="R95" t="n">
         <v>0</v>
@@ -43477,25 +43477,25 @@
         <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>0.5631007562966506</v>
+        <v>0.5262476380508285</v>
       </c>
       <c r="N103" t="n">
-        <v>0.5782419854550899</v>
+        <v>-0.6337444087790188</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06155632984901278</v>
+        <v>-0.07563025210084033</v>
       </c>
       <c r="P103" t="n">
-        <v>53</v>
+        <v>-45</v>
       </c>
       <c r="Q103" t="n">
-        <v>8087</v>
+        <v>4820.333333333333</v>
       </c>
       <c r="R103" t="n">
         <v>0</v>
       </c>
       <c r="S103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
@@ -43665,32 +43665,32 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>0.001933483036128392</v>
+        <v>0.720045021432083</v>
       </c>
       <c r="N106" t="n">
-        <v>3.100263879830046</v>
+        <v>-0.3583986237519272</v>
       </c>
       <c r="O106" t="n">
-        <v>0.28</v>
+        <v>-0.05230769230769231</v>
       </c>
       <c r="P106" t="n">
-        <v>343</v>
+        <v>-17</v>
       </c>
       <c r="Q106" t="n">
-        <v>12169</v>
+        <v>1993</v>
       </c>
       <c r="R106" t="n">
         <v>0</v>
       </c>
       <c r="S106" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107">
@@ -44120,32 +44120,32 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>no trend</t>
+          <t>decreasing</t>
         </is>
       </c>
       <c r="L113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M113" t="n">
-        <v>0.1531437439657599</v>
+        <v>0.04948737124695035</v>
       </c>
       <c r="N113" t="n">
-        <v>-1.428514778609759</v>
+        <v>-1.964368515926561</v>
       </c>
       <c r="O113" t="n">
-        <v>-0.1387755102040816</v>
+        <v>-0.202020202020202</v>
       </c>
       <c r="P113" t="n">
-        <v>-170</v>
+        <v>-200</v>
       </c>
       <c r="Q113" t="n">
-        <v>13996</v>
+        <v>10262.66666666667</v>
       </c>
       <c r="R113" t="n">
-        <v>-0.03846153846153846</v>
+        <v>-0.07362240289069558</v>
       </c>
       <c r="S113" t="n">
-        <v>3.942307692307693</v>
+        <v>5.619692863595303</v>
       </c>
     </row>
     <row r="114">
@@ -44257,25 +44257,25 @@
         <v>0</v>
       </c>
       <c r="M115" t="n">
-        <v>0.414237166020498</v>
+        <v>0.3282060661285529</v>
       </c>
       <c r="N115" t="n">
-        <v>0.8164598708995013</v>
+        <v>-0.9777336665949743</v>
       </c>
       <c r="O115" t="n">
-        <v>0.07673469387755102</v>
+        <v>-0.1247311827956989</v>
       </c>
       <c r="P115" t="n">
-        <v>94</v>
+        <v>-58</v>
       </c>
       <c r="Q115" t="n">
-        <v>12974.66666666667</v>
+        <v>3398.666666666667</v>
       </c>
       <c r="R115" t="n">
-        <v>0</v>
+        <v>-0.05263157894736842</v>
       </c>
       <c r="S115" t="n">
-        <v>4</v>
+        <v>6.789473684210527</v>
       </c>
     </row>
     <row r="116">
@@ -44445,32 +44445,32 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>decreasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L118" t="b">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
-      <c r="M118" t="n">
-        <v>0.002026778733865475</v>
-      </c>
       <c r="N118" t="n">
-        <v>-3.086279990720944</v>
+        <v>0</v>
       </c>
       <c r="O118" t="n">
-        <v>-0.243265306122449</v>
+        <v>-0.007352941176470588</v>
       </c>
       <c r="P118" t="n">
-        <v>-298</v>
+        <v>-1</v>
       </c>
       <c r="Q118" t="n">
-        <v>9260.666666666666</v>
+        <v>515.6666666666666</v>
       </c>
       <c r="R118" t="n">
         <v>0</v>
       </c>
       <c r="S118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -44575,32 +44575,32 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M120" t="n">
-        <v>1.847652713049541e-06</v>
+        <v>0.1547212957319766</v>
       </c>
       <c r="N120" t="n">
-        <v>4.769411086328391</v>
+        <v>1.42305126113676</v>
       </c>
       <c r="O120" t="n">
-        <v>0.44</v>
+        <v>0.1816091954022989</v>
       </c>
       <c r="P120" t="n">
-        <v>539</v>
+        <v>79</v>
       </c>
       <c r="Q120" t="n">
-        <v>12724.33333333333</v>
+        <v>3004.333333333333</v>
       </c>
       <c r="R120" t="n">
-        <v>0.06896551724137931</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="S120" t="n">
-        <v>-0.6896551724137931</v>
+        <v>2.369565217391304</v>
       </c>
     </row>
     <row r="121">
@@ -44712,19 +44712,19 @@
         <v>0</v>
       </c>
       <c r="M122" t="n">
-        <v>0.6414908944261908</v>
+        <v>0.6090473046930951</v>
       </c>
       <c r="N122" t="n">
-        <v>0.4656152929734798</v>
+        <v>0.5114338394653799</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04489795918367347</v>
+        <v>0.05315614617940199</v>
       </c>
       <c r="P122" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Q122" t="n">
-        <v>13450.33333333333</v>
+        <v>8445.333333333334</v>
       </c>
       <c r="R122" t="n">
         <v>0</v>
@@ -44907,25 +44907,25 @@
         <v>0</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09431357830663645</v>
+        <v>0.4214420309678952</v>
       </c>
       <c r="N125" t="n">
-        <v>1.673069686278115</v>
+        <v>0.8039219871759481</v>
       </c>
       <c r="O125" t="n">
-        <v>0.153469387755102</v>
+        <v>0.1009852216748768</v>
       </c>
       <c r="P125" t="n">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="Q125" t="n">
-        <v>12492.66666666667</v>
+        <v>2475.666666666667</v>
       </c>
       <c r="R125" t="n">
         <v>0</v>
       </c>
       <c r="S125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -44965,32 +44965,32 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M126" t="n">
-        <v>0.02226285956750518</v>
+        <v>0.06818489781853465</v>
       </c>
       <c r="N126" t="n">
-        <v>2.285853004675765</v>
+        <v>1.823782914899107</v>
       </c>
       <c r="O126" t="n">
-        <v>0.2204081632653061</v>
+        <v>0.1835748792270532</v>
       </c>
       <c r="P126" t="n">
-        <v>270</v>
+        <v>190</v>
       </c>
       <c r="Q126" t="n">
-        <v>13848.66666666667</v>
+        <v>10739.33333333333</v>
       </c>
       <c r="R126" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="S126" t="n">
-        <v>1.557692307692307</v>
+        <v>2.318181818181818</v>
       </c>
     </row>
     <row r="127">
@@ -45037,25 +45037,25 @@
         <v>0</v>
       </c>
       <c r="M127" t="n">
-        <v>0.8628513064115122</v>
+        <v>0.09365377837159627</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1727457177182523</v>
+        <v>1.676431115802568</v>
       </c>
       <c r="O127" t="n">
-        <v>0.01991465149359886</v>
+        <v>0.22</v>
       </c>
       <c r="P127" t="n">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="Q127" t="n">
-        <v>5663.333333333333</v>
+        <v>1503.333333333333</v>
       </c>
       <c r="R127" t="n">
         <v>0</v>
       </c>
       <c r="S127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -45752,19 +45752,19 @@
         <v>0</v>
       </c>
       <c r="M138" t="n">
-        <v>0.452819367628402</v>
+        <v>0.8968316034995198</v>
       </c>
       <c r="N138" t="n">
-        <v>0.7507230174017876</v>
+        <v>-0.1296648371974174</v>
       </c>
       <c r="O138" t="n">
-        <v>0.07346938775510205</v>
+        <v>-0.01387604070305273</v>
       </c>
       <c r="P138" t="n">
-        <v>90</v>
+        <v>-15</v>
       </c>
       <c r="Q138" t="n">
-        <v>14054.66666666667</v>
+        <v>11657.66666666667</v>
       </c>
       <c r="R138" t="n">
         <v>0</v>
@@ -46005,32 +46005,32 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M142" t="n">
-        <v>0.0008417851075466221</v>
+        <v>0.124767437701691</v>
       </c>
       <c r="N142" t="n">
-        <v>3.338676576537275</v>
+        <v>1.535066729490695</v>
       </c>
       <c r="O142" t="n">
-        <v>0.3183673469387755</v>
+        <v>0.1756756756756757</v>
       </c>
       <c r="P142" t="n">
-        <v>390</v>
+        <v>117</v>
       </c>
       <c r="Q142" t="n">
-        <v>13575.33333333333</v>
+        <v>5710.333333333333</v>
       </c>
       <c r="R142" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.04880952380952381</v>
       </c>
       <c r="S142" t="n">
-        <v>0.75</v>
+        <v>3.121428571428571</v>
       </c>
     </row>
     <row r="143">
